--- a/MULTIPLICACION MATRICES/RESULTADOS/Comparar_GPUS/Comparar_3_GPUS.xlsx
+++ b/MULTIPLICACION MATRICES/RESULTADOS/Comparar_GPUS/Comparar_3_GPUS.xlsx
@@ -19,13 +19,13 @@
     <t>Dimensión de la Matriz</t>
   </si>
   <si>
-    <t>GPU Google Colab (s)</t>
+    <t>NVIDIA Tesla T4 (s)</t>
   </si>
   <si>
-    <t>GPU Portátil (s)</t>
+    <t>Intel Iris Xe (s)</t>
   </si>
   <si>
-    <t>GPU UCM (s)</t>
+    <t>NVIDIA GeForce RTX 3090 (s)</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,34 +543,6 @@
         <v>0.022260736</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>4096</v>
-      </c>
-      <c r="B12">
-        <v>0.850934144</v>
-      </c>
-      <c r="C12">
-        <v>20.36259802</v>
-      </c>
-      <c r="D12">
-        <v>0.242134016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>8192</v>
-      </c>
-      <c r="B13">
-        <v>7.383664224</v>
-      </c>
-      <c r="C13">
-        <v>57.185595364</v>
-      </c>
-      <c r="D13">
-        <v>2.123139104</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
